--- a/Civilworks cost/DPP_Revised/First_revised2.xlsx
+++ b/Civilworks cost/DPP_Revised/First_revised2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" firstSheet="28" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -11115,8 +11115,8 @@
     <col min="4" max="4" width="25.5546875" style="321" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" style="321" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="199" customWidth="1"/>
-    <col min="7" max="242" width="8.6640625" style="321" customWidth="1"/>
-    <col min="243" max="16384" width="8.6640625" style="321"/>
+    <col min="7" max="243" width="8.6640625" style="321" customWidth="1"/>
+    <col min="244" max="16384" width="8.6640625" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -18199,8 +18199,8 @@
     <col min="14" max="18" width="22.88671875" style="321" customWidth="1"/>
     <col min="19" max="19" width="25.6640625" style="321" customWidth="1"/>
     <col min="20" max="21" width="22.88671875" style="321" customWidth="1"/>
-    <col min="22" max="240" width="9.109375" style="321" customWidth="1"/>
-    <col min="241" max="16384" width="9.109375" style="321"/>
+    <col min="22" max="241" width="9.109375" style="321" customWidth="1"/>
+    <col min="242" max="16384" width="9.109375" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="70" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22304,8 +22304,8 @@
     <col min="19" max="19" width="16.5546875" style="321" customWidth="1"/>
     <col min="20" max="20" width="15.109375" style="321" customWidth="1"/>
     <col min="21" max="21" width="16.44140625" style="199" customWidth="1"/>
-    <col min="22" max="242" width="9.109375" style="321" customWidth="1"/>
-    <col min="243" max="16384" width="9.109375" style="321"/>
+    <col min="22" max="243" width="9.109375" style="321" customWidth="1"/>
+    <col min="244" max="16384" width="9.109375" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="70" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.45">
@@ -28053,8 +28053,8 @@
     <col min="19" max="19" width="36.44140625" style="321" customWidth="1"/>
     <col min="20" max="20" width="40" style="321" customWidth="1"/>
     <col min="21" max="21" width="12.5546875" style="321" customWidth="1"/>
-    <col min="22" max="233" width="9.109375" style="321" customWidth="1"/>
-    <col min="234" max="16384" width="9.109375" style="321"/>
+    <col min="22" max="234" width="9.109375" style="321" customWidth="1"/>
+    <col min="235" max="16384" width="9.109375" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="70" customFormat="1" ht="180.75" customHeight="1" x14ac:dyDescent="0.7">
@@ -31795,8 +31795,8 @@
     <col min="13" max="13" width="13.6640625" style="321" customWidth="1"/>
     <col min="14" max="14" width="14.109375" style="321" customWidth="1"/>
     <col min="15" max="17" width="12.88671875" style="321" customWidth="1"/>
-    <col min="18" max="233" width="9.109375" style="321" customWidth="1"/>
-    <col min="234" max="16384" width="9.109375" style="321"/>
+    <col min="18" max="234" width="9.109375" style="321" customWidth="1"/>
+    <col min="235" max="16384" width="9.109375" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="70" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33854,8 +33854,8 @@
     <col min="4" max="5" width="8.6640625" style="321" customWidth="1"/>
     <col min="6" max="8" width="9.109375" style="321" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" style="321" customWidth="1"/>
-    <col min="10" max="105" width="9.109375" style="321" customWidth="1"/>
-    <col min="106" max="16384" width="9.109375" style="321"/>
+    <col min="10" max="106" width="9.109375" style="321" customWidth="1"/>
+    <col min="107" max="16384" width="9.109375" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -34217,8 +34217,8 @@
     <col min="17" max="19" width="14.6640625" style="321" customWidth="1"/>
     <col min="20" max="20" width="9.109375" style="321" customWidth="1"/>
     <col min="21" max="21" width="12" style="321" customWidth="1"/>
-    <col min="22" max="235" width="9.109375" style="321" customWidth="1"/>
-    <col min="236" max="16384" width="9.109375" style="321"/>
+    <col min="22" max="236" width="9.109375" style="321" customWidth="1"/>
+    <col min="237" max="16384" width="9.109375" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="94" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -34468,8 +34468,8 @@
     <col min="17" max="19" width="14.88671875" style="321" customWidth="1"/>
     <col min="20" max="20" width="9.109375" style="321" customWidth="1"/>
     <col min="21" max="21" width="13.33203125" style="321" customWidth="1"/>
-    <col min="22" max="235" width="9.109375" style="321" customWidth="1"/>
-    <col min="236" max="16384" width="9.109375" style="321"/>
+    <col min="22" max="236" width="9.109375" style="321" customWidth="1"/>
+    <col min="237" max="16384" width="9.109375" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="94" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.45">
@@ -34949,8 +34949,8 @@
     <col min="17" max="19" width="12.88671875" style="321" customWidth="1"/>
     <col min="20" max="20" width="17.44140625" style="321" customWidth="1"/>
     <col min="21" max="21" width="11.88671875" style="321" customWidth="1"/>
-    <col min="22" max="235" width="9.109375" style="321" customWidth="1"/>
-    <col min="236" max="16384" width="9.109375" style="321"/>
+    <col min="22" max="236" width="9.109375" style="321" customWidth="1"/>
+    <col min="237" max="16384" width="9.109375" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="94" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
@@ -35434,7 +35434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
@@ -41397,8 +41397,8 @@
     <col min="22" max="22" width="17.88671875" style="321" customWidth="1"/>
     <col min="23" max="23" width="13.109375" style="199" customWidth="1"/>
     <col min="24" max="24" width="16.44140625" style="321" customWidth="1"/>
-    <col min="25" max="203" width="9.109375" style="321" customWidth="1"/>
-    <col min="204" max="16384" width="9.109375" style="321"/>
+    <col min="25" max="204" width="9.109375" style="321" customWidth="1"/>
+    <col min="205" max="16384" width="9.109375" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="70" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -46964,8 +46964,8 @@
     <col min="18" max="18" width="23.6640625" style="321" customWidth="1"/>
     <col min="19" max="20" width="9.109375" style="321" customWidth="1"/>
     <col min="21" max="21" width="16.109375" style="321" customWidth="1"/>
-    <col min="22" max="203" width="9.109375" style="321" customWidth="1"/>
-    <col min="204" max="16384" width="9.109375" style="321"/>
+    <col min="22" max="204" width="9.109375" style="321" customWidth="1"/>
+    <col min="205" max="16384" width="9.109375" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -51978,7 +51978,7 @@
   </sheetPr>
   <dimension ref="A1:W95"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
@@ -52001,8 +52001,8 @@
     <col min="16" max="16" width="14" style="321" customWidth="1"/>
     <col min="17" max="17" width="13.44140625" style="321" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="321" customWidth="1"/>
-    <col min="19" max="178" width="8.6640625" style="321" customWidth="1"/>
-    <col min="179" max="16384" width="8.6640625" style="321"/>
+    <col min="19" max="179" width="8.6640625" style="321" customWidth="1"/>
+    <col min="180" max="16384" width="8.6640625" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -55674,8 +55674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:J72"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55699,8 +55699,8 @@
     <col min="17" max="17" width="11.88671875" style="169" customWidth="1"/>
     <col min="18" max="18" width="12.6640625" style="169" customWidth="1"/>
     <col min="19" max="19" width="12.109375" style="169" customWidth="1"/>
-    <col min="20" max="159" width="9.109375" style="321" customWidth="1"/>
-    <col min="160" max="16384" width="9.109375" style="321"/>
+    <col min="20" max="160" width="9.109375" style="321" customWidth="1"/>
+    <col min="161" max="16384" width="9.109375" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -61060,8 +61060,8 @@
     <col min="8" max="8" width="15.33203125" style="321" customWidth="1"/>
     <col min="9" max="10" width="9.109375" style="321" customWidth="1"/>
     <col min="11" max="11" width="60.109375" style="321" customWidth="1"/>
-    <col min="12" max="101" width="9.109375" style="321" customWidth="1"/>
-    <col min="102" max="16384" width="9.109375" style="321"/>
+    <col min="12" max="102" width="9.109375" style="321" customWidth="1"/>
+    <col min="103" max="16384" width="9.109375" style="321"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/Civilworks cost/DPP_Revised/First_revised2.xlsx
+++ b/Civilworks cost/DPP_Revised/First_revised2.xlsx
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="326">
-        <f t="shared" ref="P34:P65" si="1">SUM(B34:O34)</f>
+        <f t="shared" ref="P34:P50" si="1">SUM(B34:O34)</f>
         <v>-1268.5899999999999</v>
       </c>
     </row>
@@ -30227,7 +30227,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="205">
-        <f t="shared" ref="T34:T65" si="1">SUM(B34:S34)</f>
+        <f t="shared" ref="T34:T57" si="1">SUM(B34:S34)</f>
         <v>1417</v>
       </c>
       <c r="U34" s="197">
@@ -55674,8 +55674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -72619,7 +72619,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="326">
-        <f t="shared" ref="O34:O65" si="1">SUM(B34:N34)</f>
+        <f t="shared" ref="O34:O50" si="1">SUM(B34:N34)</f>
         <v>1280.79</v>
       </c>
     </row>
